--- a/Kubing/BLD/resources/Dylan's 3-Style Learning Sheet.xlsx
+++ b/Kubing/BLD/resources/Dylan's 3-Style Learning Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onlin\IdeaProjects\Annet\einarkl.github.io\Kubing\BLD\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162C7D3-C75F-415B-9352-B0BCD4B4460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57AEFD-680F-41F1-A8CB-0C3A8BCB277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="1162">
   <si>
     <t>3-Style Edges Video:</t>
   </si>
@@ -3868,6 +3868,60 @@
   </si>
   <si>
     <t>S-Insert</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>UBR</t>
+  </si>
+  <si>
+    <t>UFL</t>
+  </si>
+  <si>
+    <t>DFL</t>
+  </si>
+  <si>
+    <t>DFR</t>
+  </si>
+  <si>
+    <t>DBR</t>
+  </si>
+  <si>
+    <t>DBL</t>
   </si>
 </sst>
 </file>
@@ -4684,10 +4738,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4866,7 +4920,7 @@
       <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -6382,82 +6436,82 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>1155</v>
       </c>
       <c r="C1" t="s">
-        <v>508</v>
+        <v>1156</v>
       </c>
       <c r="D1" t="s">
-        <v>509</v>
+        <v>1157</v>
       </c>
       <c r="E1" t="s">
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="F1" t="s">
-        <v>511</v>
+        <v>1033</v>
       </c>
       <c r="G1" t="s">
-        <v>512</v>
+        <v>1077</v>
       </c>
       <c r="H1" t="s">
-        <v>513</v>
+        <v>1070</v>
       </c>
       <c r="I1" t="s">
-        <v>514</v>
+        <v>1037</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>1041</v>
       </c>
       <c r="K1" t="s">
-        <v>516</v>
+        <v>1085</v>
       </c>
       <c r="L1" t="s">
-        <v>517</v>
+        <v>1023</v>
       </c>
       <c r="M1" t="s">
-        <v>518</v>
+        <v>1051</v>
       </c>
       <c r="N1" t="s">
-        <v>519</v>
+        <v>1046</v>
       </c>
       <c r="O1" t="s">
-        <v>520</v>
+        <v>1025</v>
       </c>
       <c r="P1" t="s">
-        <v>521</v>
+        <v>1027</v>
       </c>
       <c r="Q1" t="s">
-        <v>522</v>
+        <v>1063</v>
       </c>
       <c r="R1" t="s">
-        <v>523</v>
+        <v>1057</v>
       </c>
       <c r="S1" t="s">
-        <v>524</v>
+        <v>1158</v>
       </c>
       <c r="T1" t="s">
-        <v>525</v>
+        <v>1159</v>
       </c>
       <c r="U1" t="s">
-        <v>526</v>
+        <v>1160</v>
       </c>
       <c r="V1" t="s">
-        <v>527</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>1155</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6525,7 +6579,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>1156</v>
       </c>
       <c r="B3" t="s">
         <v>905</v>
@@ -6593,7 +6647,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>1157</v>
       </c>
       <c r="B4" t="s">
         <v>905</v>
@@ -6661,7 +6715,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -6729,7 +6783,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>1033</v>
       </c>
       <c r="B6" t="s">
         <v>905</v>
@@ -6797,7 +6851,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>1077</v>
       </c>
       <c r="B7" t="s">
         <v>906</v>
@@ -6865,7 +6919,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>1070</v>
       </c>
       <c r="B8" t="s">
         <v>906</v>
@@ -6933,7 +6987,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>1037</v>
       </c>
       <c r="B9" t="s">
         <v>905</v>
@@ -7001,7 +7055,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>1041</v>
       </c>
       <c r="B10" t="s">
         <v>906</v>
@@ -7069,7 +7123,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>1085</v>
       </c>
       <c r="B11" t="s">
         <v>906</v>
@@ -7137,7 +7191,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
         <v>905</v>
@@ -7205,7 +7259,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>1051</v>
       </c>
       <c r="B13" t="s">
         <v>906</v>
@@ -7273,7 +7327,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>1046</v>
       </c>
       <c r="B14" t="s">
         <v>906</v>
@@ -7341,7 +7395,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>1025</v>
       </c>
       <c r="B15" t="s">
         <v>905</v>
@@ -7409,7 +7463,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>1027</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -7477,7 +7531,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>1063</v>
       </c>
       <c r="B17" t="s">
         <v>906</v>
@@ -7545,7 +7599,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>1057</v>
       </c>
       <c r="B18" t="s">
         <v>906</v>
@@ -7613,7 +7667,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>1158</v>
       </c>
       <c r="B19" t="s">
         <v>907</v>
@@ -7681,7 +7735,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>1159</v>
       </c>
       <c r="B20" t="s">
         <v>908</v>
@@ -7749,7 +7803,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>1160</v>
       </c>
       <c r="B21" t="s">
         <v>907</v>
@@ -7817,7 +7871,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>1161</v>
       </c>
       <c r="B22" t="s">
         <v>908</v>
@@ -7897,10 +7951,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8090,20 +8144,20 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8487,17 +8541,17 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8837,11 +8891,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="8" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9141,7 +9195,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -10711,9 +10765,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="4.42578125" customWidth="1"/>
+    <col min="1" max="14" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" customHeight="1"/>
@@ -10968,7 +11022,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -12670,7 +12724,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -14846,86 +14900,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E738EDFA-DBB1-417C-B1A9-9D206DBF4830}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>937</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>938</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>939</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>1144</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>940</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>1145</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>941</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>1146</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>1147</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>1148</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>1149</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>943</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>1150</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>942</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>1151</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>1152</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>1153</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>1154</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>946</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>944</v>
       </c>
       <c r="V1" t="s">
-        <v>68</v>
+        <v>947</v>
       </c>
       <c r="W1" t="s">
-        <v>69</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>937</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -14996,7 +15050,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>938</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -15067,7 +15121,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>939</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -15138,7 +15192,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>1144</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
@@ -15209,7 +15263,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>940</v>
       </c>
       <c r="B6" t="s">
         <v>151</v>
@@ -15280,7 +15334,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>1145</v>
       </c>
       <c r="B7" t="s">
         <v>171</v>
@@ -15351,7 +15405,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>941</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
@@ -15422,7 +15476,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>1146</v>
       </c>
       <c r="B9" t="s">
         <v>211</v>
@@ -15493,7 +15547,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>1147</v>
       </c>
       <c r="B10" t="s">
         <v>231</v>
@@ -15564,7 +15618,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>1148</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
@@ -15635,7 +15689,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>1149</v>
       </c>
       <c r="B12" t="s">
         <v>271</v>
@@ -15706,7 +15760,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>943</v>
       </c>
       <c r="B13" t="s">
         <v>291</v>
@@ -15777,7 +15831,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>1150</v>
       </c>
       <c r="B14" t="s">
         <v>310</v>
@@ -15848,7 +15902,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>942</v>
       </c>
       <c r="B15" t="s">
         <v>330</v>
@@ -15919,7 +15973,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>1151</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15990,7 +16044,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>1152</v>
       </c>
       <c r="B17" t="s">
         <v>370</v>
@@ -16061,7 +16115,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>1153</v>
       </c>
       <c r="B18" t="s">
         <v>389</v>
@@ -16132,7 +16186,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>1154</v>
       </c>
       <c r="B19" t="s">
         <v>409</v>
@@ -16203,7 +16257,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>946</v>
       </c>
       <c r="B20" t="s">
         <v>429</v>
@@ -16274,7 +16328,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>944</v>
       </c>
       <c r="B21" t="s">
         <v>448</v>
@@ -16345,7 +16399,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>947</v>
       </c>
       <c r="B22" t="s">
         <v>468</v>
@@ -16416,7 +16470,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>945</v>
       </c>
       <c r="B23" t="s">
         <v>487</v>
@@ -16504,7 +16558,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -18726,10 +18780,10 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -20383,7 +20437,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
@@ -21898,83 +21952,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFA6B62-03D5-496F-B5D1-170C58B2A8E2}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>1155</v>
       </c>
       <c r="C1" t="s">
-        <v>508</v>
+        <v>1156</v>
       </c>
       <c r="D1" t="s">
-        <v>509</v>
+        <v>1157</v>
       </c>
       <c r="E1" t="s">
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="F1" t="s">
-        <v>511</v>
+        <v>1033</v>
       </c>
       <c r="G1" t="s">
-        <v>512</v>
+        <v>1077</v>
       </c>
       <c r="H1" t="s">
-        <v>513</v>
+        <v>1070</v>
       </c>
       <c r="I1" t="s">
-        <v>514</v>
+        <v>1037</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>1041</v>
       </c>
       <c r="K1" t="s">
-        <v>516</v>
+        <v>1085</v>
       </c>
       <c r="L1" t="s">
-        <v>517</v>
+        <v>1023</v>
       </c>
       <c r="M1" t="s">
-        <v>518</v>
+        <v>1051</v>
       </c>
       <c r="N1" t="s">
-        <v>519</v>
+        <v>1046</v>
       </c>
       <c r="O1" t="s">
-        <v>520</v>
+        <v>1025</v>
       </c>
       <c r="P1" t="s">
-        <v>521</v>
+        <v>1027</v>
       </c>
       <c r="Q1" t="s">
-        <v>522</v>
+        <v>1063</v>
       </c>
       <c r="R1" t="s">
-        <v>523</v>
+        <v>1057</v>
       </c>
       <c r="S1" t="s">
-        <v>524</v>
+        <v>1158</v>
       </c>
       <c r="T1" t="s">
-        <v>525</v>
+        <v>1159</v>
       </c>
       <c r="U1" t="s">
-        <v>526</v>
+        <v>1160</v>
       </c>
       <c r="V1" t="s">
-        <v>527</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>1155</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -22042,7 +22096,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>1156</v>
       </c>
       <c r="B3" t="s">
         <v>546</v>
@@ -22110,7 +22164,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>1157</v>
       </c>
       <c r="B4" t="s">
         <v>564</v>
@@ -22178,7 +22232,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -22246,7 +22300,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>1033</v>
       </c>
       <c r="B6" t="s">
         <v>600</v>
@@ -22314,7 +22368,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>1077</v>
       </c>
       <c r="B7" t="s">
         <v>618</v>
@@ -22382,7 +22436,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>1070</v>
       </c>
       <c r="B8" t="s">
         <v>636</v>
@@ -22450,7 +22504,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>1037</v>
       </c>
       <c r="B9" t="s">
         <v>654</v>
@@ -22518,7 +22572,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>1041</v>
       </c>
       <c r="B10" t="s">
         <v>672</v>
@@ -22586,7 +22640,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>1085</v>
       </c>
       <c r="B11" t="s">
         <v>690</v>
@@ -22654,7 +22708,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
         <v>708</v>
@@ -22722,7 +22776,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>1051</v>
       </c>
       <c r="B13" t="s">
         <v>726</v>
@@ -22790,7 +22844,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>1046</v>
       </c>
       <c r="B14" t="s">
         <v>744</v>
@@ -22858,7 +22912,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>1025</v>
       </c>
       <c r="B15" t="s">
         <v>762</v>
@@ -22926,7 +22980,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>1027</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -22994,7 +23048,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>1063</v>
       </c>
       <c r="B17" t="s">
         <v>798</v>
@@ -23062,7 +23116,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>1057</v>
       </c>
       <c r="B18" t="s">
         <v>815</v>
@@ -23130,7 +23184,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>1158</v>
       </c>
       <c r="B19" t="s">
         <v>833</v>
@@ -23198,7 +23252,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>1159</v>
       </c>
       <c r="B20" t="s">
         <v>852</v>
@@ -23266,7 +23320,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>1160</v>
       </c>
       <c r="B21" t="s">
         <v>870</v>
@@ -23334,7 +23388,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>1161</v>
       </c>
       <c r="B22" t="s">
         <v>887</v>
